--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_5_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_5_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.93547578236719, 50.1658331513801]</t>
+          <t>[49.9354994553719, 50.165809478375394]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.93798834747631, 50.10187418199501]</t>
+          <t>[49.93791071998112, 50.1019518094902]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.911008274524455, 50.160584048997855]</t>
+          <t>[49.91134896963028, 50.16024335389203]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.96064571821549, 50.12923225149153]</t>
+          <t>[49.96063030804248, 50.129247661664536]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.83820126248716, 50.10192345540433]</t>
+          <t>[49.837995719056394, 50.1021289988351]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90039876141028, 50.067214999119976]</t>
+          <t>[49.90057273592122, 50.06704102460903]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.88336994244521, 50.16178176341877]</t>
+          <t>[49.883285378044334, 50.16186632781965]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.00752967018868, 50.17370028522213]</t>
+          <t>[50.00757137491481, 50.173658580496]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.937508351861005, 50.204777713765544]</t>
+          <t>[49.93389387624619, 50.20839218938036]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.95015556871179, 50.10823642573148]</t>
+          <t>[49.95019896485398, 50.10819302958929]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.812129425374415, 50.12381972103508]</t>
+          <t>[49.80833588403445, 50.12761326237505]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.89689875130061, 50.0740029103806]</t>
+          <t>[49.89678835663548, 50.07411330504573]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.79849951430962, 50.121775176375316]</t>
+          <t>[49.80057059490395, 50.11970409578098]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.89668373948471, 50.07150797393492]</t>
+          <t>[49.89661567455387, 50.07157603886576]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.9045571919713, 50.18575069670859]</t>
+          <t>[49.9068960732158, 50.18341181546409]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.86498072249545, 50.01189318363152]</t>
+          <t>[49.8647632915018, 50.01211061462517]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.86736815622865, 50.1824496255787]</t>
+          <t>[49.859623601936555, 50.190194179870794]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.86858429868179, 50.03832766826087]</t>
+          <t>[49.86849986149844, 50.038412105444216]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.91392704350464, 50.23499027052678]</t>
+          <t>[49.917709881124054, 50.23120743290737]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.93091364597165, 50.09413648130302]</t>
+          <t>[49.93079442404706, 50.09425570322761]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.99744364377164, 50.29240494351473]</t>
+          <t>[49.99365937621855, 50.29618921106782]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.937036359724026, 50.096300986509725]</t>
+          <t>[49.93718527260484, 50.09615207362891]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.94661547994272, 50.2597640805656]</t>
+          <t>[49.94820190433965, 50.25817765616868]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.88385413119926, 50.06389741683496]</t>
+          <t>[49.883819072526045, 50.063932475508174]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.93840365118437, 50.21207554715717]</t>
+          <t>[49.93886659564557, 50.21161260269597]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.931903671863815, 50.12108633303779]</t>
+          <t>[49.932014766643704, 50.1209752382579]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[49.73358227548863, 50.07728934332867]</t>
+          <t>[49.735083035993824, 50.07578858282348]</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.859201851250646, 50.061637479563814]</t>
+          <t>[49.85923124658646, 50.061608084228]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[49.69621369253112, 50.077956397809075]</t>
+          <t>[49.70022206898896, 50.073948021351235]</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[49.88798232138788, 50.089388680879395]</t>
+          <t>[49.887886335433464, 50.08948466683381]</t>
         </is>
       </c>
       <c r="V16" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_5_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_5_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.9354994553719, 50.165809478375394]</t>
+          <t>[49.93547842734688, 50.16583050640041]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.93791071998112, 50.1019518094902]</t>
+          <t>[49.937942303322345, 50.10192022614898]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.91134896963028, 50.16024335389203]</t>
+          <t>[49.90928819265365, 50.16230413086866]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.96063030804248, 50.129247661664536]</t>
+          <t>[49.960563404262736, 50.12931456544428]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.837995719056394, 50.1021289988351]</t>
+          <t>[49.8402373280195, 50.099887389871995]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.90057273592122, 50.06704102460903]</t>
+          <t>[49.9004582277854, 50.067155532744856]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.883285378044334, 50.16186632781965]</t>
+          <t>[49.884824084454934, 50.16032762140905]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.00757137491481, 50.173658580496]</t>
+          <t>[50.0074587850048, 50.17377117040601]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.93389387624619, 50.20839218938036]</t>
+          <t>[49.9354863772198, 50.20679968840675]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.95019896485398, 50.10819302958929]</t>
+          <t>[49.949995457972264, 50.108396536471005]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.80833588403445, 50.12761326237505]</t>
+          <t>[49.80626842329517, 50.129680723114326]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.89678835663548, 50.07411330504573]</t>
+          <t>[49.89669100956407, 50.07421065211714]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.80057059490395, 50.11970409578098]</t>
+          <t>[49.803323530106006, 50.11695116057893]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.89661567455387, 50.07157603886576]</t>
+          <t>[49.89664323600558, 50.07154847741405]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.9068960732158, 50.18341181546409]</t>
+          <t>[49.906521727925174, 50.183786160754714]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.8647632915018, 50.01211061462517]</t>
+          <t>[49.86482916340828, 50.01204474271869]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.859623601936555, 50.190194179870794]</t>
+          <t>[49.86496377391457, 50.18485400789278]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.86849986149844, 50.038412105444216]</t>
+          <t>[49.868694133210454, 50.038217833732205]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.917709881124054, 50.23120743290737]</t>
+          <t>[49.916065118190104, 50.23285219584132]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.93079442404706, 50.09425570322761]</t>
+          <t>[49.93099061754601, 50.09405950972866]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.99365937621855, 50.29618921106782]</t>
+          <t>[49.9942149197297, 50.29563366755667]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.93718527260484, 50.09615207362891]</t>
+          <t>[49.93697676211628, 50.09636058411747]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.94820190433965, 50.25817765616868]</t>
+          <t>[49.946169925073036, 50.26020963543529]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.883819072526045, 50.063932475508174]</t>
+          <t>[49.88388980843039, 50.06386173960383]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[49.93886659564557, 50.21161260269597]</t>
+          <t>[49.93880783962548, 50.21167135871606]</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[49.932014766643704, 50.1209752382579]</t>
+          <t>[49.93200997999508, 50.12098002490652]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[49.735083035993824, 50.07578858282348]</t>
+          <t>[49.73416199758069, 50.07670962123661]</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[49.85923124658646, 50.061608084228]</t>
+          <t>[49.85933457270585, 50.06150475810861]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[49.70022206898896, 50.073948021351235]</t>
+          <t>[49.69385166448774, 50.080318425852454]</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[49.887886335433464, 50.08948466683381]</t>
+          <t>[49.8879891388654, 50.089381863401876]</t>
         </is>
       </c>
       <c r="V16" t="n">
